--- a/pred_ohlcv/54_21/2020-01-12 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 IPX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>999538.0081387396</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1001703.80803874</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1000167.01323874</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>999516.0550387396</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1001931.68623874</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1082805.26023874</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1082612.534738739</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1084501.66693874</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1080999.626838739</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1081859.830538739</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1083089.026138739</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1082210.519938739</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1082851.249438739</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1082514.770338739</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1087549.172838739</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1086609.331238739</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1087827.931538739</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1086917.843238739</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1088651.167038739</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1095431.082338739</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1096245.703238739</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1094684.160538739</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1095782.212338739</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1095682.212338739</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1099909.598138738</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1100465.416238738</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1101901.302138738</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1103662.612838738</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1103988.091938738</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1102202.600238738</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1137885.570138738</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1133771.555738738</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1121534.496938738</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1155332.849338738</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1154681.891238738</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1163190.300438738</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1125077.145638738</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1128842.927038738</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1128972.250638738</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1130736.429438738</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1132191.634738738</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1142138.705938738</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1141813.226938738</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1158951.368638738</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1152048.543238738</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1152944.487838738</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1150573.743538738</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1151600.180638738</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1150861.667038738</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1149361.667038738</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1115741.657538738</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1094709.036138738</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1096725.490738738</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1095150.832838738</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1093296.727238738</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1090074.118038738</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1091050.555138738</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1091050.555138738</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1091050.555138738</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1092920.090338738</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1092269.132338738</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1092269.132338738</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1093468.395038738</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1092599.241338738</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1092599.241338738</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1092599.241338738</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1094148.010438738</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1094148.010438738</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1093251.741638738</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1093577.220638738</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1092027.189738738</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1092923.158138738</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1091725.186538738</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1080653.838538738</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1081514.214038738</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1081514.214038738</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1081514.214038738</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1083298.276838738</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1083298.276838738</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1082114.267438738</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1080751.515238738</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1082841.883238738</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1082841.883238738</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1082841.883238738</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1082841.883238738</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1076378.055338738</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1058181.188138738</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1058506.667138738</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>835096.2977387382</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>843053.2567387383</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>845695.7198387383</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>845370.2408387383</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>845695.7198387383</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>843933.0144387383</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>845560.4096387384</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>845560.4096387384</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>795947.2133387383</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>795947.2133387383</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>747632.6596387384</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>747632.6596387384</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>746330.7434387384</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>748072.3802387384</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>746888.1066387384</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>782199.9626387386</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>782199.9626387386</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>806703.9012387386</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>804056.3580387386</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>804707.3161387386</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>803405.4000387386</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>803289.3939387386</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>804470.1958387386</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>803286.6452387386</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>804499.3633387387</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>804167.6495387388</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>802617.3476387388</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>803511.1806387388</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>804156.0487387388</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>803505.0907387388</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>804722.3164387387</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>803608.2477387388</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>801725.6091387388</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>801382.6046387389</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>800192.9719387389</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>801933.2472387389</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>800393.0977387389</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>802111.1795387388</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>801215.9443387388</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>802843.3395387388</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>802517.8605387388</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>805144.7727387388</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>807400.5285387388</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>805303.6834387388</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>804238.7449387389</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>804543.0340387389</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>803978.3104387389</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>803886.7879387388</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>802986.8022387387</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>802069.1228387388</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>801743.6438387388</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>803505.2068387388</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>802622.1200387387</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>809632.5708387387</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>808981.6127387387</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 IPX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>999538.0081387396</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1001703.80803874</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1000167.01323874</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>999516.0550387396</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1067286.093138739</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1082805.26023874</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1082612.534738739</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1084501.66693874</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1080999.626838739</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1081859.830538739</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1083089.026138739</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1082210.519938739</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1082851.249438739</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1082514.770338739</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1087549.172838739</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1086609.331238739</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1087827.931538739</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1086917.843238739</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1088651.167038739</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1095431.082338739</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1096245.703238739</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1094684.160538739</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1095782.212338739</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1095682.212338739</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1099909.598138738</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1100465.416238738</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1101901.302138738</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1103662.612838738</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1103988.091938738</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1102202.600238738</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1137885.570138738</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1133771.555738738</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1121534.496938738</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1155332.849338738</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1154681.891238738</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1163190.300438738</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1125077.145638738</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1128842.927038738</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1128972.250638738</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1130736.429438738</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1132191.634738738</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1142138.705938738</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1141813.226938738</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1158951.368638738</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1152048.543238738</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1152944.487838738</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1150573.743538738</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1151600.180638738</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1150861.667038738</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1149361.667038738</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1115741.657538738</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>840690.7482387383</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>835096.2977387382</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>794414.7849387383</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>806703.9012387386</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>804056.3580387386</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>804707.3161387386</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>803405.4000387386</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>803289.3939387386</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>804470.1958387386</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>803286.6452387386</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>804499.3633387387</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>804167.6495387388</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>802617.3476387388</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>803511.1806387388</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>804156.0487387388</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>803505.0907387388</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>804722.3164387387</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>803608.2477387388</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>801725.6091387388</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>801382.6046387389</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>800192.9719387389</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>801933.2472387389</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>800393.0977387389</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>802111.1795387388</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>801215.9443387388</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>802843.3395387388</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>802517.8605387388</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>805144.7727387388</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>807400.5285387388</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>805303.6834387388</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>804238.7449387389</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>804543.0340387389</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>803978.3104387389</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>803886.7879387388</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>802986.8022387387</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>802069.1228387388</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>801743.6438387388</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>803505.2068387388</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>802622.1200387387</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>809632.5708387387</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>808981.6127387387</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
